--- a/src/main/webapp/assets/excel/plan/Mining_Report_3b.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Report_3b.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Д/д</t>
   </si>
@@ -218,6 +218,9 @@
   <si>
     <t>үйлдвэрлэлийн бус металл (эрдэс)</t>
   </si>
+  <si>
+    <t>Тодотгол</t>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,23 +429,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -453,10 +450,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,11 +459,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,10 +764,10 @@
   <dimension ref="A1:CO3101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="AY8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:BI17"/>
+      <selection pane="bottomRight" activeCell="BJ8" sqref="BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -782,351 +791,356 @@
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:93" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:93" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:93" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="23" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:93" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="17" t="s">
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17" t="s">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17" t="s">
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17" t="s">
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17" t="s">
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17" t="s">
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17" t="s">
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
-      <c r="BB5" s="17" t="s">
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17" t="s">
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="17"/>
-      <c r="BI5" s="17"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="23"/>
     </row>
     <row r="6" spans="1:93" s="3" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="X6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="Y6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AB6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AD6" s="21" t="s">
+      <c r="AD6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AE6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AG6" s="21" t="s">
+      <c r="AG6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="21" t="s">
+      <c r="AH6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AI6" s="21" t="s">
+      <c r="AI6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="21" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AK6" s="21" t="s">
+      <c r="AK6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" s="21" t="s">
+      <c r="AL6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AM6" s="21" t="s">
+      <c r="AM6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="21" t="s">
+      <c r="AN6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AO6" s="21" t="s">
+      <c r="AO6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AP6" s="21" t="s">
+      <c r="AP6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AQ6" s="21" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AR6" s="21" t="s">
+      <c r="AR6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AS6" s="21" t="s">
+      <c r="AS6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AT6" s="21" t="s">
+      <c r="AT6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="21" t="s">
+      <c r="AU6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AV6" s="21" t="s">
+      <c r="AV6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AW6" s="21" t="s">
+      <c r="AW6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AX6" s="21" t="s">
+      <c r="AX6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AY6" s="21" t="s">
+      <c r="AY6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AZ6" s="21" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BA6" s="21" t="s">
+      <c r="BA6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BB6" s="21" t="s">
+      <c r="BB6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BC6" s="21" t="s">
+      <c r="BC6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BD6" s="21" t="s">
+      <c r="BD6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BE6" s="21" t="s">
+      <c r="BE6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BF6" s="21" t="s">
+      <c r="BF6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BG6" s="21" t="s">
+      <c r="BG6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BH6" s="21" t="s">
+      <c r="BH6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BI6" s="21" t="s">
+      <c r="BI6" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="BJ6" s="23"/>
     </row>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1168,151 +1182,153 @@
       <c r="M7" s="5">
         <v>13</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="8">
         <v>14</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="10">
         <v>15</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="8">
         <v>16</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="10">
         <v>17</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="8">
         <v>18</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="10">
         <v>19</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="8">
         <v>20</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="10">
         <v>21</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="8">
         <v>22</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="10">
         <v>23</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="8">
         <v>24</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="10">
         <v>25</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="8">
         <v>26</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AA7" s="10">
         <v>27</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="8">
         <v>28</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="10">
         <v>29</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="8">
         <v>30</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="10">
         <v>31</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="8">
         <v>32</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="10">
         <v>33</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="8">
         <v>34</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="10">
         <v>35</v>
       </c>
-      <c r="AJ7" s="18">
+      <c r="AJ7" s="8">
         <v>36</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="10">
         <v>37</v>
       </c>
-      <c r="AL7" s="18">
+      <c r="AL7" s="8">
         <v>38</v>
       </c>
-      <c r="AM7" s="22">
+      <c r="AM7" s="10">
         <v>39</v>
       </c>
-      <c r="AN7" s="18">
+      <c r="AN7" s="8">
         <v>40</v>
       </c>
-      <c r="AO7" s="22">
+      <c r="AO7" s="10">
         <v>41</v>
       </c>
-      <c r="AP7" s="18">
+      <c r="AP7" s="8">
         <v>42</v>
       </c>
-      <c r="AQ7" s="22">
+      <c r="AQ7" s="10">
         <v>43</v>
       </c>
-      <c r="AR7" s="18">
+      <c r="AR7" s="8">
         <v>44</v>
       </c>
-      <c r="AS7" s="22">
+      <c r="AS7" s="10">
         <v>45</v>
       </c>
-      <c r="AT7" s="18">
+      <c r="AT7" s="8">
         <v>46</v>
       </c>
-      <c r="AU7" s="22">
+      <c r="AU7" s="10">
         <v>47</v>
       </c>
-      <c r="AV7" s="18">
+      <c r="AV7" s="8">
         <v>48</v>
       </c>
-      <c r="AW7" s="22">
+      <c r="AW7" s="10">
         <v>49</v>
       </c>
-      <c r="AX7" s="18">
+      <c r="AX7" s="8">
         <v>50</v>
       </c>
-      <c r="AY7" s="22">
+      <c r="AY7" s="10">
         <v>51</v>
       </c>
-      <c r="AZ7" s="18">
+      <c r="AZ7" s="8">
         <v>52</v>
       </c>
-      <c r="BA7" s="22">
+      <c r="BA7" s="10">
         <v>53</v>
       </c>
-      <c r="BB7" s="18">
+      <c r="BB7" s="8">
         <v>54</v>
       </c>
-      <c r="BC7" s="22">
+      <c r="BC7" s="10">
         <v>55</v>
       </c>
-      <c r="BD7" s="18">
+      <c r="BD7" s="8">
         <v>56</v>
       </c>
-      <c r="BE7" s="22">
+      <c r="BE7" s="10">
         <v>57</v>
       </c>
-      <c r="BF7" s="18">
+      <c r="BF7" s="8">
         <v>58</v>
       </c>
-      <c r="BG7" s="22">
+      <c r="BG7" s="10">
         <v>59</v>
       </c>
-      <c r="BH7" s="18">
+      <c r="BH7" s="8">
         <v>60</v>
       </c>
-      <c r="BI7" s="22">
+      <c r="BI7" s="10">
         <v>61</v>
       </c>
-      <c r="BJ7" s="6"/>
+      <c r="BJ7" s="24">
+        <v>62</v>
+      </c>
       <c r="BK7" s="6"/>
       <c r="BL7" s="6"/>
       <c r="BM7" s="6"/>
@@ -50850,25 +50866,9 @@
       <c r="N3101"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="AX5:BA5"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="N4:BI4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Q5:Q6"/>
+  <mergeCells count="36">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="BJ4:BJ6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="A2:B2"/>
@@ -50885,7 +50885,24 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N4:BI4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="BF5:BI5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AT5:AW5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
